--- a/update_villages.xlsx
+++ b/update_villages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakehughey/Library/CloudStorage/GoogleDrive-jakejhughey@gmail.com/My Drive/career/suvita/suvita-surveycto-ambassadors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22EFDD8-E2C0-1B4F-8D0A-7509A4A4646A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476DE91F-6C11-F648-8E31-C2BC0FDEF77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22140" windowHeight="21900" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="381">
   <si>
     <t>deviceid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2526,6 +2526,9 @@
   </si>
   <si>
     <t>sortby_nominee</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -5170,9 +5173,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5366,6 +5369,9 @@
       <c r="F9" s="9" t="s">
         <v>357</v>
       </c>
+      <c r="K9" s="9" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
@@ -5392,6 +5398,9 @@
       <c r="D11" s="11"/>
       <c r="G11" s="9" t="s">
         <v>377</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
@@ -6016,7 +6025,7 @@
       </c>
       <c r="C2" s="16" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2304201503</v>
+        <v>2304201559</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="18"/>

--- a/update_villages.xlsx
+++ b/update_villages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakehughey/Library/CloudStorage/GoogleDrive-jakejhughey@gmail.com/My Drive/career/suvita/suvita-surveycto-ambassadors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476DE91F-6C11-F648-8E31-C2BC0FDEF77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A75150-D0EE-C94C-9830-84D2970360D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22140" windowHeight="21900" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="17920" windowHeight="21900" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="392">
   <si>
     <t>deviceid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2525,10 +2525,43 @@
     <t>update_villages</t>
   </si>
   <si>
-    <t>sortby_nominee</t>
-  </si>
-  <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>nominee_sortby</t>
+  </si>
+  <si>
+    <t>village_sortby_rg</t>
+  </si>
+  <si>
+    <t>string-length(${village_name})</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>village_sortby</t>
+  </si>
+  <si>
+    <t>num_raw</t>
+  </si>
+  <si>
+    <t>num_scaled</t>
+  </si>
+  <si>
+    <t>sum(${num_scaled})</t>
+  </si>
+  <si>
+    <t>substr(${village_name}, index() - 1, index())</t>
+  </si>
+  <si>
+    <t>${num_raw} div pow(100, index() - 1)</t>
+  </si>
+  <si>
+    <t>Repeat group for village sortby.</t>
+  </si>
+  <si>
+    <t>coalesce(pulldata('characters_to_numbers', 'number', 'character', lower(${char})), 0)</t>
   </si>
 </sst>
 </file>
@@ -5171,11 +5204,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5193,7 +5226,7 @@
     <col min="11" max="11" width="8.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" style="9" customWidth="1"/>
     <col min="13" max="13" width="9.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="123" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="72.5" style="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.1640625" style="9" customWidth="1"/>
     <col min="16" max="16" width="12" style="9" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
@@ -5370,7 +5403,7 @@
         <v>357</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
@@ -5400,7 +5433,7 @@
         <v>377</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
@@ -5427,16 +5460,19 @@
         <v>375</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>361</v>
+        <v>381</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>390</v>
       </c>
       <c r="D14" s="11"/>
-      <c r="N14" s="9" t="s">
-        <v>371</v>
+      <c r="O14" s="9" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
@@ -5444,11 +5480,11 @@
         <v>44</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="N15" s="9">
-        <v>2</v>
+      <c r="N15" s="9" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
@@ -5456,11 +5492,11 @@
         <v>44</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="D16" s="11"/>
-      <c r="N16" s="9">
-        <v>1</v>
+      <c r="N16" s="9" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
@@ -5468,35 +5504,32 @@
         <v>44</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="D17" s="11"/>
-      <c r="N17" s="80" t="s">
-        <v>373</v>
+      <c r="N17" s="9" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="D18" s="11"/>
-      <c r="N18" s="9">
-        <v>0</v>
-      </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="D19" s="11"/>
-      <c r="N19" s="80" t="s">
-        <v>374</v>
+      <c r="N19" s="9" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
@@ -5504,38 +5537,110 @@
         <v>44</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="N20" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="N21" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="N22" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="N23" s="80" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="N24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="N25" s="80" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="N20" s="9">
+      <c r="D26" s="11"/>
+      <c r="N26" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
+    <row r="27" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B27" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C27" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="D22" s="11"/>
-      <c r="W22" s="9"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="D28" s="11"/>
+      <c r="W28" s="9"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -6025,7 +6130,7 @@
       </c>
       <c r="C2" s="16" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2304201559</v>
+        <v>2304251739</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="18"/>

--- a/update_villages.xlsx
+++ b/update_villages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakehughey/Library/CloudStorage/GoogleDrive-jakejhughey@gmail.com/My Drive/career/suvita/suvita-surveycto-ambassadors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A75150-D0EE-C94C-9830-84D2970360D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9586EAD-2543-E943-BF27-11DF87D0F5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="17920" windowHeight="21900" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="26680" windowHeight="21900" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,247 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jake Hughey</author>
+  </authors>
+  <commentList>
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{4C9F2924-7901-794F-A84D-8919AFB4D733}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jake Hughey:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>make sure a village of that name doesn't already exist in the selected district.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{05B20EC1-4D1B-4C43-A21C-ADC95A356587}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jake Hughey:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>converting a string to a decimal number for sorting.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N15" authorId="0" shapeId="0" xr:uid="{6D9D65E9-4FFF-7D42-B9BD-D6C7D04761B3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jake Hughey:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>get the current character</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N16" authorId="0" shapeId="0" xr:uid="{A3C2207E-7E36-1F4B-8564-50B7877E2D97}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jake Hughey:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>convert the character to a number</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N17" authorId="0" shapeId="0" xr:uid="{1F065B2B-61C6-0D4E-8CFF-44DEE79DBEA7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jake Hughey:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>scale the number based on its position in the string</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N19" authorId="0" shapeId="0" xr:uid="{D4911B84-9463-6042-A789-030A355CD35E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jake Hughey:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>sum the scaled numbers to get the value for sortby</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N21" authorId="0" shapeId="0" xr:uid="{BD66BFB2-F280-5643-882B-DCE8AB73B430}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jake Hughey:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>so option to create a new nominee will appear at the end of the list.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="392">
   <si>
@@ -2568,7 +2809,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -2708,6 +2949,19 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -4882,6 +5136,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5203,12 +5461,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5974,6 +6232,7 @@
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6130,7 +6389,7 @@
       </c>
       <c r="C2" s="16" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2304251739</v>
+        <v>2304260923</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="18"/>
